--- a/DataAnalystTask.xlsx
+++ b/DataAnalystTask.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B37F3678-622F-42D2-8DD7-EFD7F5BC7DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anukinho/Documents/GitHub/Data-Pipeline/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BC22D5-483A-3748-B013-EB6E4FDDA5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1001,7 +1006,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1053,9 +1058,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="47" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="47" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,9 +1079,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1114,7 +1119,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1220,7 +1225,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1362,7 +1367,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1372,16 +1377,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.6640625" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="30.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18">
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1428,7 +1435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18">
+    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>79.03</v>
       </c>
@@ -1475,7 +1482,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18">
+    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1500,7 +1507,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18">
+    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1525,7 +1532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18">
+    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1550,7 +1557,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18">
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1575,7 +1582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18">
+    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1600,7 +1607,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18">
+    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1625,7 +1632,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="18">
+    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1650,7 +1657,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="18">
+    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1675,7 +1682,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18">
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1700,7 +1707,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="18">
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1725,7 +1732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="18">
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1750,7 +1757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="18">
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1775,7 +1782,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="18">
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1800,7 +1807,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="18">
+    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1825,7 +1832,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="18">
+    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1850,7 +1857,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="18">
+    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1875,7 +1882,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="18">
+    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1900,7 +1907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="18">
+    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1925,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="18">
+    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1950,7 +1957,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="18">
+    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1975,7 +1982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="18">
+    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2000,7 +2007,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="18">
+    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2025,7 +2032,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="18">
+    <row r="25" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2050,7 +2057,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="18">
+    <row r="26" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>18.100000000000001</v>
       </c>
@@ -2097,7 +2104,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="18">
+    <row r="27" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2122,7 +2129,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="18">
+    <row r="28" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2147,7 +2154,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="18">
+    <row r="29" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2172,7 +2179,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="18">
+    <row r="30" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>61.96</v>
       </c>
@@ -2219,7 +2226,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="18">
+    <row r="31" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2244,7 +2251,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="18">
+    <row r="32" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2269,7 +2276,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="18">
+    <row r="33" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2294,7 +2301,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="18">
+    <row r="34" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2319,7 +2326,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="18">
+    <row r="35" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2344,7 +2351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="18">
+    <row r="36" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2369,7 +2376,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="18">
+    <row r="37" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2394,7 +2401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="18">
+    <row r="38" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2419,7 +2426,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="18">
+    <row r="39" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2444,7 +2451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="18">
+    <row r="40" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2469,7 +2476,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="18">
+    <row r="41" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2494,7 +2501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="18">
+    <row r="42" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2519,7 +2526,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="18">
+    <row r="43" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2544,7 +2551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="18">
+    <row r="44" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2569,7 +2576,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="18">
+    <row r="45" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2594,7 +2601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="18">
+    <row r="46" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2619,7 +2626,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="18">
+    <row r="47" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2644,7 +2651,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="18">
+    <row r="48" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2669,7 +2676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="18">
+    <row r="49" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2694,7 +2701,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="18">
+    <row r="50" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2719,7 +2726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="18">
+    <row r="51" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>24.28</v>
       </c>
@@ -2766,7 +2773,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="18">
+    <row r="52" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2791,7 +2798,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="18">
+    <row r="53" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2816,7 +2823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="18">
+    <row r="54" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2841,7 +2848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="18">
+    <row r="55" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2866,7 +2873,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="18">
+    <row r="56" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2891,7 +2898,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="18">
+    <row r="57" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2916,7 +2923,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="18">
+    <row r="58" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2941,7 +2948,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="18">
+    <row r="59" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2966,7 +2973,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="18">
+    <row r="60" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2991,7 +2998,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="18">
+    <row r="61" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3016,7 +3023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="18">
+    <row r="62" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3041,7 +3048,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="18">
+    <row r="63" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3066,7 +3073,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="18">
+    <row r="64" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3091,7 +3098,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="18">
+    <row r="65" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>21.45</v>
       </c>
@@ -3138,7 +3145,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="18">
+    <row r="66" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3163,7 +3170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="18">
+    <row r="67" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3188,7 +3195,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="18">
+    <row r="68" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3213,7 +3220,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="18">
+    <row r="69" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3238,7 +3245,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="18">
+    <row r="70" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3263,7 +3270,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="18">
+    <row r="71" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3288,7 +3295,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="18">
+    <row r="72" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3313,7 +3320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="18">
+    <row r="73" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3338,7 +3345,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="18">
+    <row r="74" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3363,7 +3370,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="18">
+    <row r="75" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3388,7 +3395,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="18">
+    <row r="76" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3413,7 +3420,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="18">
+    <row r="77" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3438,7 +3445,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="18">
+    <row r="78" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3463,7 +3470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="18">
+    <row r="79" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>64.319999999999993</v>
       </c>
@@ -3510,7 +3517,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="18">
+    <row r="80" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3535,7 +3542,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="18">
+    <row r="81" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3560,7 +3567,7 @@
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="18">
+    <row r="82" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3585,7 +3592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="18">
+    <row r="83" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3610,7 +3617,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="18">
+    <row r="84" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3635,7 +3642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="18">
+    <row r="85" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3660,7 +3667,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="18">
+    <row r="86" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3685,7 +3692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="18">
+    <row r="87" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3710,7 +3717,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="18">
+    <row r="88" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3735,7 +3742,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="18">
+    <row r="89" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3760,7 +3767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="18">
+    <row r="90" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3785,7 +3792,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="18">
+    <row r="91" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3810,7 +3817,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="18">
+    <row r="92" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3835,7 +3842,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="18">
+    <row r="93" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3860,7 +3867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="18">
+    <row r="94" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>38</v>
       </c>
@@ -3907,7 +3914,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="18">
+    <row r="95" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>1.6</v>
       </c>
@@ -3954,7 +3961,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="18">
+    <row r="96" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>25.73</v>
       </c>
@@ -4001,7 +4008,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="18">
+    <row r="97" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4026,7 +4033,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="18">
+    <row r="98" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4051,7 +4058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="18">
+    <row r="99" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4076,7 +4083,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="18">
+    <row r="100" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4101,7 +4108,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="18">
+    <row r="101" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4126,7 +4133,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="18">
+    <row r="102" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4151,7 +4158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="18">
+    <row r="103" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4176,7 +4183,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="18">
+    <row r="104" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>42.25</v>
       </c>
@@ -4223,7 +4230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="18">
+    <row r="105" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4248,7 +4255,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="18">
+    <row r="106" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4273,7 +4280,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="18">
+    <row r="107" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4298,7 +4305,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="18">
+    <row r="108" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4323,7 +4330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="18">
+    <row r="109" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4348,7 +4355,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="18">
+    <row r="110" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4373,7 +4380,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="18">
+    <row r="111" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4398,7 +4405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="18">
+    <row r="112" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4423,7 +4430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="18">
+    <row r="113" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4448,7 +4455,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="18">
+    <row r="114" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4473,7 +4480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="18">
+    <row r="115" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -4498,7 +4505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="18">
+    <row r="116" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4523,7 +4530,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="18">
+    <row r="117" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -4548,7 +4555,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="18">
+    <row r="118" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4573,7 +4580,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="18">
+    <row r="119" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4598,7 +4605,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="18">
+    <row r="120" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4623,7 +4630,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="18">
+    <row r="121" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4648,7 +4655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="18">
+    <row r="122" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>72.84</v>
       </c>
@@ -4695,7 +4702,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="18">
+    <row r="123" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4720,7 +4727,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="18">
+    <row r="124" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4745,7 +4752,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="18">
+    <row r="125" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4770,7 +4777,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="18">
+    <row r="126" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4795,7 +4802,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="18">
+    <row r="127" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4820,7 +4827,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="18">
+    <row r="128" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4845,7 +4852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="18">
+    <row r="129" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4870,7 +4877,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="18">
+    <row r="130" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -4895,7 +4902,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="18">
+    <row r="131" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -4920,7 +4927,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="18">
+    <row r="132" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4945,7 +4952,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="18">
+    <row r="133" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -4970,7 +4977,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="18">
+    <row r="134" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -4995,7 +5002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="18">
+    <row r="135" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5020,7 +5027,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="18">
+    <row r="136" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5045,7 +5052,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="18">
+    <row r="137" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5070,7 +5077,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="18">
+    <row r="138" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5095,7 +5102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="18">
+    <row r="139" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5120,7 +5127,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="18">
+    <row r="140" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5145,7 +5152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="18">
+    <row r="141" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5170,7 +5177,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="18">
+    <row r="142" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5195,7 +5202,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="18">
+    <row r="143" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5220,7 +5227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="18">
+    <row r="144" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5245,7 +5252,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="18">
+    <row r="145" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5270,7 +5277,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="18">
+    <row r="146" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -5295,7 +5302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="18">
+    <row r="147" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -5320,7 +5327,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="18">
+    <row r="148" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -5345,7 +5352,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="18">
+    <row r="149" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -5370,7 +5377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="18">
+    <row r="150" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -5395,7 +5402,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="18">
+    <row r="151" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>34</v>
       </c>
@@ -5442,7 +5449,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="18">
+    <row r="152" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>86.83</v>
       </c>
@@ -5489,7 +5496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="18">
+    <row r="153" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -5514,7 +5521,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="18">
+    <row r="154" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -5539,7 +5546,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="18">
+    <row r="155" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -5564,7 +5571,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="18">
+    <row r="156" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -5589,7 +5596,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="18">
+    <row r="157" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -5614,7 +5621,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="18">
+    <row r="158" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -5639,7 +5646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="18">
+    <row r="159" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -5664,7 +5671,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="18">
+    <row r="160" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -5689,7 +5696,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="18">
+    <row r="161" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -5714,7 +5721,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="18">
+    <row r="162" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -5739,7 +5746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="18">
+    <row r="163" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -5764,7 +5771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="18">
+    <row r="164" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -5789,7 +5796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="18">
+    <row r="165" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5814,7 +5821,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="18">
+    <row r="166" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -5839,7 +5846,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="18">
+    <row r="167" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -5864,7 +5871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="18">
+    <row r="168" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -5889,7 +5896,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="18">
+    <row r="169" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -5914,7 +5921,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="18">
+    <row r="170" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -5939,7 +5946,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="18">
+    <row r="171" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -5964,7 +5971,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="18">
+    <row r="172" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -5989,7 +5996,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="18">
+    <row r="173" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6014,7 +6021,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="18">
+    <row r="174" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -6039,7 +6046,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="18">
+    <row r="175" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -6064,7 +6071,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="18">
+    <row r="176" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -6089,7 +6096,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="18">
+    <row r="177" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6114,7 +6121,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="18">
+    <row r="178" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6139,7 +6146,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="18">
+    <row r="179" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6164,7 +6171,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="18">
+    <row r="180" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6189,7 +6196,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="18">
+    <row r="181" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6214,7 +6221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="18">
+    <row r="182" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6239,7 +6246,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="18">
+    <row r="183" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -6264,7 +6271,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="18">
+    <row r="184" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -6289,7 +6296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="18">
+    <row r="185" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -6314,7 +6321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="18">
+    <row r="186" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -6339,7 +6346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="18">
+    <row r="187" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -6364,7 +6371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="18">
+    <row r="188" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -6389,7 +6396,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="18">
+    <row r="189" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>8.5500000000000007</v>
       </c>
@@ -6436,7 +6443,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="18">
+    <row r="190" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -6461,7 +6468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="18">
+    <row r="191" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -6486,7 +6493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="18">
+    <row r="192" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>21.05</v>
       </c>
@@ -6533,7 +6540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="18">
+    <row r="193" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -6558,7 +6565,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="18">
+    <row r="194" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -6583,7 +6590,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="18">
+    <row r="195" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6608,7 +6615,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="18">
+    <row r="196" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -6633,7 +6640,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="18">
+    <row r="197" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -6658,7 +6665,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="18">
+    <row r="198" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6683,7 +6690,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="18">
+    <row r="199" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6708,7 +6715,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="18">
+    <row r="200" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6733,7 +6740,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="18">
+    <row r="201" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6758,7 +6765,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="18">
+    <row r="202" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6783,7 +6790,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="18">
+    <row r="203" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -6808,7 +6815,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="18">
+    <row r="204" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -6833,7 +6840,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="18">
+    <row r="205" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>49.66</v>
       </c>
@@ -6880,7 +6887,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="18">
+    <row r="206" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -6905,7 +6912,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="18">
+    <row r="207" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>21.67</v>
       </c>
@@ -6952,7 +6959,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="18">
+    <row r="208" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>47.65</v>
       </c>
@@ -6999,7 +7006,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="18">
+    <row r="209" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>52.2</v>
       </c>
@@ -7046,7 +7053,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="18">
+    <row r="210" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>38.44</v>
       </c>
@@ -7093,7 +7100,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="18">
+    <row r="211" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -7118,7 +7125,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="18">
+    <row r="212" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -7143,7 +7150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="18">
+    <row r="213" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -7168,7 +7175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="18">
+    <row r="214" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -7193,7 +7200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="18">
+    <row r="215" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -7218,7 +7225,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="18">
+    <row r="216" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -7243,7 +7250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="18">
+    <row r="217" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -7268,7 +7275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="18">
+    <row r="218" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -7293,7 +7300,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="18">
+    <row r="219" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -7318,7 +7325,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="18">
+    <row r="220" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -7343,7 +7350,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="18">
+    <row r="221" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -7368,7 +7375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="18">
+    <row r="222" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -7393,7 +7400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="18">
+    <row r="223" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -7418,7 +7425,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="18">
+    <row r="224" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -7443,7 +7450,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="18">
+    <row r="225" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -7468,7 +7475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="18">
+    <row r="226" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -7493,7 +7500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="18">
+    <row r="227" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -7518,7 +7525,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="18">
+    <row r="228" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -7543,7 +7550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="18">
+    <row r="229" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>35.22</v>
       </c>
@@ -7590,7 +7597,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="18">
+    <row r="230" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -7615,7 +7622,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="18">
+    <row r="231" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -7640,7 +7647,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="18">
+    <row r="232" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -7665,7 +7672,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="18">
+    <row r="233" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -7690,7 +7697,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="18">
+    <row r="234" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -7715,7 +7722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="18">
+    <row r="235" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -7740,7 +7747,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="18">
+    <row r="236" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -7765,7 +7772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="18">
+    <row r="237" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -7790,7 +7797,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="18">
+    <row r="238" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>13.45</v>
       </c>
@@ -7837,7 +7844,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="18">
+    <row r="239" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -7862,7 +7869,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="18">
+    <row r="240" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -7887,7 +7894,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="18">
+    <row r="241" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -7912,7 +7919,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="242" spans="1:15" ht="18">
+    <row r="242" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -7937,7 +7944,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="18">
+    <row r="243" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -7962,7 +7969,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="18">
+    <row r="244" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -7987,7 +7994,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="245" spans="1:15" ht="18">
+    <row r="245" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -8012,7 +8019,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="18">
+    <row r="246" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>42.04</v>
       </c>
@@ -8059,7 +8066,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="18">
+    <row r="247" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>14.44</v>
       </c>
@@ -8106,7 +8113,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="248" spans="1:15" ht="18">
+    <row r="248" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -8131,7 +8138,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="249" spans="1:15" ht="18">
+    <row r="249" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -8156,7 +8163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="18">
+    <row r="250" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -8181,7 +8188,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="18">
+    <row r="251" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -8206,7 +8213,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="252" spans="1:15" ht="18">
+    <row r="252" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -8231,7 +8238,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="18">
+    <row r="253" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -8256,7 +8263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:15" ht="18">
+    <row r="254" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -8281,7 +8288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:15" ht="18">
+    <row r="255" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -8306,7 +8313,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="256" spans="1:15" ht="18">
+    <row r="256" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>12.55</v>
       </c>
@@ -8353,7 +8360,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="257" spans="1:15" ht="18">
+    <row r="257" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -8378,7 +8385,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="258" spans="1:15" ht="18">
+    <row r="258" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -8403,7 +8410,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="18">
+    <row r="259" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -8428,7 +8435,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="18">
+    <row r="260" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -8453,7 +8460,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="261" spans="1:15" ht="18">
+    <row r="261" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -8478,7 +8485,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="262" spans="1:15" ht="18">
+    <row r="262" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -8503,7 +8510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:15" ht="18">
+    <row r="263" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -8528,7 +8535,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="264" spans="1:15" ht="18">
+    <row r="264" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -8553,7 +8560,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="265" spans="1:15" ht="18">
+    <row r="265" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>35.28</v>
       </c>
@@ -8600,7 +8607,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="266" spans="1:15" ht="18">
+    <row r="266" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -8625,7 +8632,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="267" spans="1:15" ht="18">
+    <row r="267" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -8650,7 +8657,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="268" spans="1:15" ht="18">
+    <row r="268" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -8675,7 +8682,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="269" spans="1:15" ht="18">
+    <row r="269" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -8700,7 +8707,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="270" spans="1:15" ht="18">
+    <row r="270" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -8725,7 +8732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:15" ht="18">
+    <row r="271" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -8750,7 +8757,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="272" spans="1:15" ht="18">
+    <row r="272" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -8775,7 +8782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:15" ht="18">
+    <row r="273" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -8800,7 +8807,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="274" spans="1:15" ht="18">
+    <row r="274" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -8825,7 +8832,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="275" spans="1:15" ht="18">
+    <row r="275" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -8850,7 +8857,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="276" spans="1:15" ht="18">
+    <row r="276" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -8875,7 +8882,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="277" spans="1:15" ht="18">
+    <row r="277" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -8900,7 +8907,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="278" spans="1:15" ht="18">
+    <row r="278" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -8925,7 +8932,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="279" spans="1:15" ht="18">
+    <row r="279" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -8950,7 +8957,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="280" spans="1:15" ht="18">
+    <row r="280" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -8975,7 +8982,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="281" spans="1:15" ht="18">
+    <row r="281" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -9000,7 +9007,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="282" spans="1:15" ht="18">
+    <row r="282" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -9025,7 +9032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:15" ht="18">
+    <row r="283" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -9050,7 +9057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:15" ht="18">
+    <row r="284" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -9075,7 +9082,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="285" spans="1:15" ht="18">
+    <row r="285" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -9100,7 +9107,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="286" spans="1:15" ht="18">
+    <row r="286" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -9125,7 +9132,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="287" spans="1:15" ht="18">
+    <row r="287" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -9150,7 +9157,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="288" spans="1:15" ht="18">
+    <row r="288" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -9175,7 +9182,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="289" spans="1:15" ht="18">
+    <row r="289" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>16</v>
       </c>
@@ -9222,7 +9229,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="290" spans="1:15" ht="18">
+    <row r="290" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>34.29</v>
       </c>
@@ -9269,7 +9276,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="291" spans="1:15" ht="18">
+    <row r="291" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -9294,7 +9301,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="292" spans="1:15" ht="18">
+    <row r="292" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -9319,7 +9326,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="293" spans="1:15" ht="18">
+    <row r="293" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -9344,7 +9351,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="294" spans="1:15" ht="18">
+    <row r="294" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -9369,7 +9376,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="295" spans="1:15" ht="18">
+    <row r="295" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -9394,7 +9401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:15" ht="18">
+    <row r="296" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -9419,7 +9426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:15" ht="18">
+    <row r="297" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -9444,7 +9451,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="298" spans="1:15" ht="18">
+    <row r="298" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -9469,7 +9476,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="299" spans="1:15" ht="18">
+    <row r="299" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -9494,7 +9501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:15" ht="18">
+    <row r="300" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -9519,7 +9526,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="301" spans="1:15" ht="18">
+    <row r="301" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -9544,7 +9551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:15" ht="18">
+    <row r="302" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -9569,7 +9576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:15" ht="18">
+    <row r="303" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -9594,7 +9601,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="304" spans="1:15" ht="18">
+    <row r="304" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -9619,7 +9626,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="305" spans="1:15" ht="18">
+    <row r="305" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>35.01</v>
       </c>
@@ -9666,7 +9673,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="306" spans="1:15" ht="18">
+    <row r="306" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>36.54</v>
       </c>
@@ -9713,7 +9720,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="307" spans="1:15" ht="18">
+    <row r="307" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -9738,7 +9745,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="308" spans="1:15" ht="18">
+    <row r="308" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -9763,7 +9770,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="309" spans="1:15" ht="18">
+    <row r="309" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -9788,7 +9795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:15" ht="18">
+    <row r="310" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -9813,7 +9820,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="311" spans="1:15" ht="18">
+    <row r="311" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -9838,7 +9845,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="312" spans="1:15" ht="18">
+    <row r="312" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -9863,7 +9870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:15" ht="18">
+    <row r="313" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -9888,7 +9895,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="314" spans="1:15" ht="18">
+    <row r="314" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -9913,7 +9920,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="315" spans="1:15" ht="18">
+    <row r="315" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -9938,7 +9945,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="316" spans="1:15" ht="18">
+    <row r="316" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -9963,7 +9970,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="317" spans="1:15" ht="18">
+    <row r="317" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -9988,7 +9995,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="318" spans="1:15" ht="18">
+    <row r="318" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -10013,7 +10020,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="319" spans="1:15" ht="18">
+    <row r="319" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>21.92</v>
       </c>
@@ -10060,7 +10067,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="320" spans="1:15" ht="18">
+    <row r="320" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -10085,7 +10092,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="321" spans="1:15" ht="18">
+    <row r="321" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -10110,7 +10117,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="322" spans="1:15" ht="18">
+    <row r="322" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -10135,7 +10142,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="323" spans="1:15" ht="18">
+    <row r="323" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -10160,7 +10167,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="324" spans="1:15" ht="18">
+    <row r="324" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -10185,7 +10192,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="325" spans="1:15" ht="18">
+    <row r="325" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -10210,7 +10217,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="326" spans="1:15" ht="18">
+    <row r="326" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -10235,7 +10242,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="327" spans="1:15" ht="18">
+    <row r="327" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -10260,7 +10267,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="328" spans="1:15" ht="18">
+    <row r="328" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -10285,7 +10292,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="329" spans="1:15" ht="18">
+    <row r="329" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -10310,7 +10317,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="330" spans="1:15" ht="18">
+    <row r="330" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -10335,7 +10342,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="331" spans="1:15" ht="18">
+    <row r="331" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -10360,7 +10367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:15" ht="18">
+    <row r="332" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -10385,7 +10392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:15" ht="18">
+    <row r="333" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -10410,7 +10417,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="334" spans="1:15" ht="18">
+    <row r="334" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -10435,7 +10442,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="335" spans="1:15" ht="18">
+    <row r="335" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -10460,7 +10467,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="336" spans="1:15" ht="18">
+    <row r="336" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>15.91</v>
       </c>
@@ -10507,7 +10514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:15" ht="18">
+    <row r="337" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -10532,7 +10539,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="338" spans="1:15" ht="18">
+    <row r="338" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -10557,7 +10564,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="339" spans="1:15" ht="18">
+    <row r="339" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -10582,7 +10589,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="340" spans="1:15" ht="18">
+    <row r="340" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -10607,7 +10614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:15" ht="18">
+    <row r="341" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -10632,7 +10639,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="342" spans="1:15" ht="18">
+    <row r="342" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>4.95</v>
       </c>
@@ -10679,7 +10686,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="343" spans="1:15" ht="18">
+    <row r="343" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -10704,7 +10711,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="344" spans="1:15" ht="18">
+    <row r="344" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -10729,7 +10736,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="345" spans="1:15" ht="18">
+    <row r="345" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -10754,7 +10761,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="346" spans="1:15" ht="18">
+    <row r="346" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -10779,7 +10786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:15" ht="18">
+    <row r="347" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>10</v>
       </c>
@@ -10826,7 +10833,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="348" spans="1:15" ht="18">
+    <row r="348" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -10851,7 +10858,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="349" spans="1:15" ht="18">
+    <row r="349" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -10876,7 +10883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:15" ht="18">
+    <row r="350" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -10901,7 +10908,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="351" spans="1:15" ht="18">
+    <row r="351" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -10926,7 +10933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:15" ht="18">
+    <row r="352" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -10951,7 +10958,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="353" spans="1:15" ht="18">
+    <row r="353" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -10976,7 +10983,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="354" spans="1:15" ht="18">
+    <row r="354" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>11.2</v>
       </c>
@@ -11023,7 +11030,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="355" spans="1:15" ht="18">
+    <row r="355" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -11048,7 +11055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:15" ht="18">
+    <row r="356" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -11073,7 +11080,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="357" spans="1:15" ht="18">
+    <row r="357" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -11098,7 +11105,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="358" spans="1:15" ht="18">
+    <row r="358" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -11123,7 +11130,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="359" spans="1:15" ht="18">
+    <row r="359" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -11148,7 +11155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:15" ht="18">
+    <row r="360" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>27.62</v>
       </c>
@@ -11195,7 +11202,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="361" spans="1:15" ht="18">
+    <row r="361" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -11220,7 +11227,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="362" spans="1:15" ht="18">
+    <row r="362" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -11245,7 +11252,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="363" spans="1:15" ht="18">
+    <row r="363" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -11270,7 +11277,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="364" spans="1:15" ht="18">
+    <row r="364" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -11295,7 +11302,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="365" spans="1:15" ht="18">
+    <row r="365" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -11320,7 +11327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:15" ht="18">
+    <row r="366" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -11345,7 +11352,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="367" spans="1:15" ht="18">
+    <row r="367" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -11370,7 +11377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:15" ht="18">
+    <row r="368" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -11395,7 +11402,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="369" spans="1:15" ht="18">
+    <row r="369" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -11420,7 +11427,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="370" spans="1:15" ht="18">
+    <row r="370" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -11445,7 +11452,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="371" spans="1:15" ht="18">
+    <row r="371" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -11470,7 +11477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:15" ht="18">
+    <row r="372" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -11495,7 +11502,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="373" spans="1:15" ht="18">
+    <row r="373" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -11520,7 +11527,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="374" spans="1:15" ht="18">
+    <row r="374" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -11545,7 +11552,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="375" spans="1:15" ht="18">
+    <row r="375" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -11570,7 +11577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:15" ht="18">
+    <row r="376" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -11595,7 +11602,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="377" spans="1:15" ht="18">
+    <row r="377" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -11620,7 +11627,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="378" spans="1:15" ht="18">
+    <row r="378" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <v>17.399999999999999</v>
       </c>
@@ -11667,7 +11674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:15" ht="18">
+    <row r="379" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -11692,7 +11699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:15" ht="18">
+    <row r="380" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -11717,7 +11724,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="381" spans="1:15" ht="18">
+    <row r="381" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -11742,7 +11749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:15" ht="18">
+    <row r="382" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -11767,7 +11774,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="383" spans="1:15" ht="18">
+    <row r="383" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -11792,7 +11799,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="384" spans="1:15" ht="18">
+    <row r="384" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -11817,7 +11824,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="385" spans="1:15" ht="18">
+    <row r="385" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -11842,7 +11849,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="386" spans="1:15" ht="18">
+    <row r="386" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -11867,7 +11874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:15" ht="18">
+    <row r="387" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
         <v>24.61</v>
       </c>
@@ -11914,7 +11921,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="388" spans="1:15" ht="18">
+    <row r="388" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -11939,7 +11946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:15" ht="18">
+    <row r="389" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -11964,7 +11971,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="390" spans="1:15" ht="18">
+    <row r="390" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -11989,7 +11996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:15" ht="18">
+    <row r="391" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -12014,7 +12021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:15" ht="18">
+    <row r="392" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -12039,7 +12046,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="393" spans="1:15" ht="18">
+    <row r="393" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -12064,7 +12071,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="394" spans="1:15" ht="18">
+    <row r="394" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -12089,7 +12096,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="395" spans="1:15" ht="18">
+    <row r="395" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -12114,7 +12121,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="396" spans="1:15" ht="18">
+    <row r="396" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -12139,7 +12146,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="397" spans="1:15" ht="18">
+    <row r="397" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -12164,7 +12171,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="398" spans="1:15" ht="18">
+    <row r="398" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -12189,7 +12196,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="399" spans="1:15" ht="18">
+    <row r="399" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -12214,7 +12221,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="400" spans="1:15" ht="18">
+    <row r="400" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -12239,7 +12246,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="401" spans="1:15" ht="18">
+    <row r="401" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -12264,7 +12271,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="402" spans="1:15" ht="18">
+    <row r="402" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
         <v>46.37</v>
       </c>
@@ -12311,7 +12318,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="403" spans="1:15" ht="18">
+    <row r="403" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -12336,7 +12343,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="404" spans="1:15" ht="18">
+    <row r="404" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -12361,7 +12368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:15" ht="18">
+    <row r="405" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -12386,7 +12393,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="406" spans="1:15" ht="18">
+    <row r="406" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -12411,7 +12418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:15" ht="18">
+    <row r="407" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -12436,7 +12443,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="408" spans="1:15" ht="18">
+    <row r="408" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -12461,7 +12468,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="409" spans="1:15" ht="18">
+    <row r="409" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -12486,7 +12493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:15" ht="18">
+    <row r="410" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -12511,7 +12518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:15" ht="18">
+    <row r="411" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -12536,7 +12543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="412" spans="1:15" ht="18">
+    <row r="412" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -12561,7 +12568,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="413" spans="1:15" ht="18">
+    <row r="413" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -12586,7 +12593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:15" ht="18">
+    <row r="414" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -12611,7 +12618,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="415" spans="1:15" ht="18">
+    <row r="415" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -12636,7 +12643,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="416" spans="1:15" ht="18">
+    <row r="416" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -12661,7 +12668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:15" ht="18">
+    <row r="417" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -12686,7 +12693,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="418" spans="1:15" ht="18">
+    <row r="418" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -12711,7 +12718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:15" ht="18">
+    <row r="419" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -12736,7 +12743,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="420" spans="1:15" ht="18">
+    <row r="420" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -12761,7 +12768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:15" ht="18">
+    <row r="421" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
         <v>27.82</v>
       </c>
@@ -12808,7 +12815,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="422" spans="1:15" ht="18">
+    <row r="422" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -12833,7 +12840,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="423" spans="1:15" ht="18">
+    <row r="423" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -12858,7 +12865,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="424" spans="1:15" ht="18">
+    <row r="424" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -12883,7 +12890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:15" ht="18">
+    <row r="425" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -12908,7 +12915,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="426" spans="1:15" ht="18">
+    <row r="426" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -12933,7 +12940,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="427" spans="1:15" ht="18">
+    <row r="427" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -12958,7 +12965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:15" ht="18">
+    <row r="428" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -12983,7 +12990,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="429" spans="1:15" ht="18">
+    <row r="429" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -13008,7 +13015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:15" ht="18">
+    <row r="430" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
         <v>10.15</v>
       </c>
@@ -13055,7 +13062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:15" ht="18">
+    <row r="431" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -13080,7 +13087,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="432" spans="1:15" ht="18">
+    <row r="432" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -13105,7 +13112,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="433" spans="1:15" ht="18">
+    <row r="433" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -13130,7 +13137,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="434" spans="1:15" ht="18">
+    <row r="434" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -13155,7 +13162,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="435" spans="1:15" ht="18">
+    <row r="435" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -13180,7 +13187,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="436" spans="1:15" ht="18">
+    <row r="436" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -13205,7 +13212,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="437" spans="1:15" ht="18">
+    <row r="437" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
         <v>14.59</v>
       </c>
@@ -13252,7 +13259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:15" ht="18">
+    <row r="438" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -13277,7 +13284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:15" ht="18">
+    <row r="439" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -13302,7 +13309,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="440" spans="1:15" ht="18">
+    <row r="440" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -13327,7 +13334,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="441" spans="1:15" ht="18">
+    <row r="441" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -13352,7 +13359,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="442" spans="1:15" ht="18">
+    <row r="442" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -13377,7 +13384,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="443" spans="1:15" ht="18">
+    <row r="443" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
         <v>23.34</v>
       </c>
@@ -13424,7 +13431,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="444" spans="1:15" ht="18">
+    <row r="444" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -13449,7 +13456,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="445" spans="1:15" ht="18">
+    <row r="445" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
         <v>321</v>
       </c>
